--- a/data/pca/factorExposure/factorExposure_2011-02-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-02-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.009730349122387091</v>
+        <v>0.01597968807264883</v>
       </c>
       <c r="C2">
-        <v>0.000553628753539687</v>
+        <v>-0.002640329616526587</v>
       </c>
       <c r="D2">
-        <v>-0.02729349747166229</v>
+        <v>-0.003323768848555777</v>
       </c>
       <c r="E2">
-        <v>0.02282993917823624</v>
+        <v>-0.01756395773772222</v>
       </c>
       <c r="F2">
-        <v>0.007239859679421726</v>
+        <v>-0.005526401198811527</v>
       </c>
       <c r="G2">
-        <v>-0.0112049380673836</v>
+        <v>0.02174116565659473</v>
       </c>
       <c r="H2">
-        <v>0.0601676384430258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.01129153905245419</v>
+      </c>
+      <c r="I2">
+        <v>-0.005603783680399332</v>
+      </c>
+      <c r="J2">
+        <v>0.01145024365917021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1096198741814273</v>
+        <v>0.1256938298974933</v>
       </c>
       <c r="C4">
-        <v>-0.01810689923714958</v>
+        <v>-0.05027705205239861</v>
       </c>
       <c r="D4">
-        <v>-0.06468223243622388</v>
+        <v>-0.009065402780219143</v>
       </c>
       <c r="E4">
-        <v>0.0549652801026233</v>
+        <v>-0.0006371952825702797</v>
       </c>
       <c r="F4">
-        <v>0.01171310809544912</v>
+        <v>0.009635036171688578</v>
       </c>
       <c r="G4">
-        <v>-0.03579472723047463</v>
+        <v>-0.01467430144342374</v>
       </c>
       <c r="H4">
-        <v>-0.032013448326863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.06200063937284215</v>
+      </c>
+      <c r="I4">
+        <v>0.09611445792949103</v>
+      </c>
+      <c r="J4">
+        <v>-0.06671345349146035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.1274822409238363</v>
+        <v>0.1165156008112902</v>
       </c>
       <c r="C6">
-        <v>-0.02502300177671212</v>
+        <v>0.0124152115409434</v>
       </c>
       <c r="D6">
-        <v>0.04475355699530931</v>
+        <v>-0.01664689187401433</v>
       </c>
       <c r="E6">
-        <v>0.02821622134381424</v>
+        <v>-0.009586195423712042</v>
       </c>
       <c r="F6">
-        <v>-0.2561028096375944</v>
+        <v>-0.02063113752999017</v>
       </c>
       <c r="G6">
-        <v>0.1638649041325533</v>
+        <v>-0.04141079451339154</v>
       </c>
       <c r="H6">
-        <v>-0.2362696660730992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.04194949458631887</v>
+      </c>
+      <c r="I6">
+        <v>0.02255682214916958</v>
+      </c>
+      <c r="J6">
+        <v>0.1484070049004923</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.08754180662682073</v>
+        <v>0.08067610478294171</v>
       </c>
       <c r="C7">
-        <v>-0.03790286665241619</v>
+        <v>-0.04100423444026178</v>
       </c>
       <c r="D7">
-        <v>-0.02548576704393919</v>
+        <v>-0.03447227270665965</v>
       </c>
       <c r="E7">
-        <v>0.0499126268550456</v>
+        <v>-0.04216071417995317</v>
       </c>
       <c r="F7">
-        <v>-0.003692316988636946</v>
+        <v>-0.008650327383975139</v>
       </c>
       <c r="G7">
-        <v>0.002512708851554309</v>
+        <v>0.04188038881736679</v>
       </c>
       <c r="H7">
-        <v>-0.01001648812422321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.03597720488470978</v>
+      </c>
+      <c r="I7">
+        <v>0.009241253322600302</v>
+      </c>
+      <c r="J7">
+        <v>-0.06216794148324389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.03988939821409096</v>
+        <v>0.05227987977747402</v>
       </c>
       <c r="C8">
-        <v>0.041840902940373</v>
+        <v>-0.005486891717412665</v>
       </c>
       <c r="D8">
-        <v>-0.06457150639623205</v>
+        <v>-0.006885971788525497</v>
       </c>
       <c r="E8">
-        <v>0.09864618543440046</v>
+        <v>-0.02381350638905924</v>
       </c>
       <c r="F8">
-        <v>-0.0426147315793456</v>
+        <v>0.02466930858307331</v>
       </c>
       <c r="G8">
-        <v>-0.156225544758455</v>
+        <v>-0.02380405196898035</v>
       </c>
       <c r="H8">
-        <v>-0.08393298481974769</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.07864853639488521</v>
+      </c>
+      <c r="I8">
+        <v>0.08801111936661835</v>
+      </c>
+      <c r="J8">
+        <v>-0.01615312214809672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.09543160005549622</v>
+        <v>0.09940335276636018</v>
       </c>
       <c r="C9">
-        <v>-0.03253581871607654</v>
+        <v>-0.04967986192881484</v>
       </c>
       <c r="D9">
-        <v>-0.04055120564296296</v>
+        <v>0.00776944528317759</v>
       </c>
       <c r="E9">
-        <v>0.04846744306514192</v>
+        <v>-0.01364555607980614</v>
       </c>
       <c r="F9">
-        <v>-0.01561205017910504</v>
+        <v>0.01886531033533962</v>
       </c>
       <c r="G9">
-        <v>-0.07354955866350782</v>
+        <v>-0.003421604475266949</v>
       </c>
       <c r="H9">
-        <v>-0.05327435946730456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.07100638641093754</v>
+      </c>
+      <c r="I9">
+        <v>0.07537316644221873</v>
+      </c>
+      <c r="J9">
+        <v>-0.04109300022311273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.04102949638067603</v>
+        <v>0.0610190481866807</v>
       </c>
       <c r="C10">
-        <v>0.1815739554597059</v>
+        <v>0.1899605638807249</v>
       </c>
       <c r="D10">
-        <v>-0.01020924706377925</v>
+        <v>0.003322813081891374</v>
       </c>
       <c r="E10">
-        <v>0.09589518967627586</v>
+        <v>-0.003621635557998216</v>
       </c>
       <c r="F10">
-        <v>-0.03232127483878057</v>
+        <v>0.00320693236538866</v>
       </c>
       <c r="G10">
-        <v>0.03696043414863332</v>
+        <v>0.05776342571986126</v>
       </c>
       <c r="H10">
-        <v>-0.01891765032093006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.0233188981887803</v>
+      </c>
+      <c r="I10">
+        <v>0.02244167774230456</v>
+      </c>
+      <c r="J10">
+        <v>-0.01957006660947248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.07729645745104634</v>
+        <v>0.09507050833035915</v>
       </c>
       <c r="C11">
-        <v>-0.05429217410426482</v>
+        <v>-0.06611067999299212</v>
       </c>
       <c r="D11">
-        <v>0.02075066271947247</v>
+        <v>-0.0285219086933245</v>
       </c>
       <c r="E11">
-        <v>0.01832399972006094</v>
+        <v>-0.04319628349884438</v>
       </c>
       <c r="F11">
-        <v>0.006074372611656545</v>
+        <v>0.06378180226193569</v>
       </c>
       <c r="G11">
-        <v>-0.1455607427361876</v>
+        <v>-0.02722120377675612</v>
       </c>
       <c r="H11">
-        <v>0.03399251519038927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.08666785360140492</v>
+      </c>
+      <c r="I11">
+        <v>0.07306333997985784</v>
+      </c>
+      <c r="J11">
+        <v>-0.01572628402747386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.07683023904213862</v>
+        <v>0.09830291615021761</v>
       </c>
       <c r="C12">
-        <v>-0.02921751561232484</v>
+        <v>-0.06851474669632299</v>
       </c>
       <c r="D12">
-        <v>-0.014523642712742</v>
+        <v>-0.02905293668670507</v>
       </c>
       <c r="E12">
-        <v>0.01187749411163586</v>
+        <v>-0.04190196522739097</v>
       </c>
       <c r="F12">
-        <v>-0.04107922665379676</v>
+        <v>0.07945154866553976</v>
       </c>
       <c r="G12">
-        <v>-0.1443151498197359</v>
+        <v>-0.01435769610211352</v>
       </c>
       <c r="H12">
-        <v>0.03557614636304931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.09031382740861582</v>
+      </c>
+      <c r="I12">
+        <v>0.05172199577622249</v>
+      </c>
+      <c r="J12">
+        <v>-0.005424376391127555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06235557101802276</v>
+        <v>0.04827286090788293</v>
       </c>
       <c r="C13">
-        <v>-0.004021174837648204</v>
+        <v>-0.01632158940629012</v>
       </c>
       <c r="D13">
-        <v>-0.02565827616665317</v>
+        <v>0.02878077172032114</v>
       </c>
       <c r="E13">
-        <v>0.01359936887749931</v>
+        <v>-0.01054843031199063</v>
       </c>
       <c r="F13">
-        <v>0.02604351112204178</v>
+        <v>-0.0004473496894971237</v>
       </c>
       <c r="G13">
-        <v>-0.1120382669821665</v>
+        <v>-0.0114245222219596</v>
       </c>
       <c r="H13">
-        <v>-0.0559561079044781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.07684868188192195</v>
+      </c>
+      <c r="I13">
+        <v>0.04274081649404824</v>
+      </c>
+      <c r="J13">
+        <v>0.009644078563813064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.0518560060970201</v>
+        <v>0.0338067865203674</v>
       </c>
       <c r="C14">
-        <v>-0.01010389359098567</v>
+        <v>-0.00601375087933836</v>
       </c>
       <c r="D14">
-        <v>-0.01969985948813086</v>
+        <v>-0.005229889054676124</v>
       </c>
       <c r="E14">
-        <v>0.04942621548096346</v>
+        <v>-0.003223210510373484</v>
       </c>
       <c r="F14">
-        <v>0.005583435483297815</v>
+        <v>0.0137370466664362</v>
       </c>
       <c r="G14">
-        <v>-0.01095051520729282</v>
+        <v>0.001600960086521652</v>
       </c>
       <c r="H14">
-        <v>-0.1347922236670711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.02819183489207143</v>
+      </c>
+      <c r="I14">
+        <v>0.03640922823288711</v>
+      </c>
+      <c r="J14">
+        <v>-0.1047316264213287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.03806553124561161</v>
+        <v>0.03316558218813802</v>
       </c>
       <c r="C15">
-        <v>0.01145380980585245</v>
+        <v>-0.01709243548931166</v>
       </c>
       <c r="D15">
-        <v>-0.004463898345546115</v>
+        <v>0.009932717015641863</v>
       </c>
       <c r="E15">
-        <v>0.02177812274570445</v>
+        <v>-0.0164127230864489</v>
       </c>
       <c r="F15">
-        <v>-0.002086034518728833</v>
+        <v>-0.02298225805955291</v>
       </c>
       <c r="G15">
-        <v>-0.003031885380869454</v>
+        <v>-0.00458759078555422</v>
       </c>
       <c r="H15">
-        <v>-0.07707368478725989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.04925333417161838</v>
+      </c>
+      <c r="I15">
+        <v>0.01585199910387665</v>
+      </c>
+      <c r="J15">
+        <v>-0.03866943475684109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.08538545349775872</v>
+        <v>0.09882965773349964</v>
       </c>
       <c r="C16">
-        <v>-0.06104893503506742</v>
+        <v>-0.06167597797939927</v>
       </c>
       <c r="D16">
-        <v>-0.026248168560227</v>
+        <v>-0.03951099130627648</v>
       </c>
       <c r="E16">
-        <v>0.02066682429163776</v>
+        <v>-0.04896414590759239</v>
       </c>
       <c r="F16">
-        <v>0.01484930515931115</v>
+        <v>0.06401716364725585</v>
       </c>
       <c r="G16">
-        <v>-0.1309593202544085</v>
+        <v>-0.01815088549240436</v>
       </c>
       <c r="H16">
-        <v>0.03357888401626792</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.09645500979377669</v>
+      </c>
+      <c r="I16">
+        <v>0.04692417714375652</v>
+      </c>
+      <c r="J16">
+        <v>-0.01871983403912623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.05782305693853636</v>
+        <v>0.05639638478112545</v>
       </c>
       <c r="C20">
-        <v>-0.01402235495859225</v>
+        <v>-0.02941144381869381</v>
       </c>
       <c r="D20">
-        <v>0.01204176085198688</v>
+        <v>-0.03177899274617673</v>
       </c>
       <c r="E20">
-        <v>0.02024756990294918</v>
+        <v>-0.004062998365076558</v>
       </c>
       <c r="F20">
-        <v>-0.01961652946781005</v>
+        <v>-0.004135406037053506</v>
       </c>
       <c r="G20">
-        <v>-0.1117625446069678</v>
+        <v>-0.005725034140247303</v>
       </c>
       <c r="H20">
-        <v>-0.01980575675679012</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.04293759722232635</v>
+      </c>
+      <c r="I20">
+        <v>0.03040811209694684</v>
+      </c>
+      <c r="J20">
+        <v>-0.06565937308575308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.02680437437203546</v>
+        <v>0.02320438526287263</v>
       </c>
       <c r="C21">
-        <v>-0.03158116984378581</v>
+        <v>-0.002333266753239707</v>
       </c>
       <c r="D21">
-        <v>2.589167013611873e-05</v>
+        <v>-0.006531871236389191</v>
       </c>
       <c r="E21">
-        <v>-0.004151722523422173</v>
+        <v>0.03296390969016658</v>
       </c>
       <c r="F21">
-        <v>-0.05290114115876148</v>
+        <v>-0.003033477450161535</v>
       </c>
       <c r="G21">
-        <v>0.1503248010760849</v>
+        <v>-0.03227751887816696</v>
       </c>
       <c r="H21">
-        <v>-0.08072576098769524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.01846821027805469</v>
+      </c>
+      <c r="I21">
+        <v>0.05168813403292333</v>
+      </c>
+      <c r="J21">
+        <v>-0.04538680092581746</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.04257279204921579</v>
+        <v>0.03379675451187417</v>
       </c>
       <c r="C22">
-        <v>-0.01063793036581855</v>
+        <v>0.02922364596595268</v>
       </c>
       <c r="D22">
-        <v>-0.6230844356594091</v>
+        <v>0.008295609037957534</v>
       </c>
       <c r="E22">
-        <v>-0.1141433547218774</v>
+        <v>-0.1008061531588135</v>
       </c>
       <c r="F22">
-        <v>0.04567332867719856</v>
+        <v>-0.5800109533406175</v>
       </c>
       <c r="G22">
-        <v>0.2140943881403304</v>
+        <v>0.04883098220090219</v>
       </c>
       <c r="H22">
-        <v>0.06954187188193364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.3071057859199767</v>
+      </c>
+      <c r="I22">
+        <v>-0.0971601895766637</v>
+      </c>
+      <c r="J22">
+        <v>0.0817389260256106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.04299738634367575</v>
+        <v>0.03398022177696287</v>
       </c>
       <c r="C23">
-        <v>-0.01145378128897539</v>
+        <v>0.02894112804671085</v>
       </c>
       <c r="D23">
-        <v>-0.6227306055204656</v>
+        <v>0.007876702383659813</v>
       </c>
       <c r="E23">
-        <v>-0.1124874072003472</v>
+        <v>-0.1024308709888784</v>
       </c>
       <c r="F23">
-        <v>0.04590959060323917</v>
+        <v>-0.5816579720053828</v>
       </c>
       <c r="G23">
-        <v>0.2160177466970264</v>
+        <v>0.04825753924755404</v>
       </c>
       <c r="H23">
-        <v>0.06932588828147265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.3087392407147727</v>
+      </c>
+      <c r="I23">
+        <v>-0.09513993915233056</v>
+      </c>
+      <c r="J23">
+        <v>0.08057994868370968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.08481890127905913</v>
+        <v>0.1012362772523358</v>
       </c>
       <c r="C24">
-        <v>-0.04316645651423374</v>
+        <v>-0.0582332782573467</v>
       </c>
       <c r="D24">
-        <v>-0.02978247411744711</v>
+        <v>-0.0342317110650114</v>
       </c>
       <c r="E24">
-        <v>0.0334991695686488</v>
+        <v>-0.03869068258446569</v>
       </c>
       <c r="F24">
-        <v>-0.01152188891445149</v>
+        <v>0.06275048270073906</v>
       </c>
       <c r="G24">
-        <v>-0.1174193581158453</v>
+        <v>-0.004372776135312983</v>
       </c>
       <c r="H24">
-        <v>0.0221463532253033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.1008268920809334</v>
+      </c>
+      <c r="I24">
+        <v>0.05025525303761762</v>
+      </c>
+      <c r="J24">
+        <v>-0.007045916921264925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.07774506398170188</v>
+        <v>0.101145264457709</v>
       </c>
       <c r="C25">
-        <v>-0.01644479519742863</v>
+        <v>-0.04692743147604364</v>
       </c>
       <c r="D25">
-        <v>-0.0166790146397159</v>
+        <v>-0.02912940935984674</v>
       </c>
       <c r="E25">
-        <v>0.02201417387419131</v>
+        <v>-0.04233622617119807</v>
       </c>
       <c r="F25">
-        <v>-0.03165567761499151</v>
+        <v>0.09159904764854862</v>
       </c>
       <c r="G25">
-        <v>-0.1162194610136402</v>
+        <v>-0.01249463480404422</v>
       </c>
       <c r="H25">
-        <v>0.02718812569542408</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.09422978748854192</v>
+      </c>
+      <c r="I25">
+        <v>0.04860375129070088</v>
+      </c>
+      <c r="J25">
+        <v>-0.03045360728766042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.0509897421746247</v>
+        <v>0.04529570306944183</v>
       </c>
       <c r="C26">
-        <v>-0.02122154015548287</v>
+        <v>-0.001017041834491397</v>
       </c>
       <c r="D26">
-        <v>-0.006441603100161369</v>
+        <v>-0.0263499137065026</v>
       </c>
       <c r="E26">
-        <v>0.04638286887635641</v>
+        <v>-0.005996906031589531</v>
       </c>
       <c r="F26">
-        <v>0.0309652733199039</v>
+        <v>0.01193663827716359</v>
       </c>
       <c r="G26">
-        <v>-0.07603579679372009</v>
+        <v>-0.03169745049455051</v>
       </c>
       <c r="H26">
-        <v>-0.1033148816705554</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.06032853080011955</v>
+      </c>
+      <c r="I26">
+        <v>0.01956882431278386</v>
+      </c>
+      <c r="J26">
+        <v>-0.06676873259408596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.06351302156692221</v>
+        <v>0.05953032444103609</v>
       </c>
       <c r="C28">
-        <v>0.3098879366354593</v>
+        <v>0.3083831785239071</v>
       </c>
       <c r="D28">
-        <v>0.0110376033919647</v>
+        <v>0.07293781645550006</v>
       </c>
       <c r="E28">
-        <v>0.016325673306026</v>
+        <v>-0.03399589693067098</v>
       </c>
       <c r="F28">
-        <v>0.00426495512217874</v>
+        <v>0.05512331411691274</v>
       </c>
       <c r="G28">
-        <v>0.003159916094804399</v>
+        <v>-0.02725891196459798</v>
       </c>
       <c r="H28">
-        <v>0.05608809573412511</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.04287975632505011</v>
+      </c>
+      <c r="I28">
+        <v>0.04025675771440118</v>
+      </c>
+      <c r="J28">
+        <v>-0.009933623030467624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.05774985411461064</v>
+        <v>0.03664781644157832</v>
       </c>
       <c r="C29">
-        <v>0.0009762764343011932</v>
+        <v>-0.005554841972024585</v>
       </c>
       <c r="D29">
-        <v>-0.04043988400117546</v>
+        <v>0.005941060647996389</v>
       </c>
       <c r="E29">
-        <v>0.03031191190256097</v>
+        <v>-0.008972172970864315</v>
       </c>
       <c r="F29">
-        <v>0.01381895866337864</v>
+        <v>0.02289332955468972</v>
       </c>
       <c r="G29">
-        <v>-0.04409036460505678</v>
+        <v>0.01004760510649394</v>
       </c>
       <c r="H29">
-        <v>-0.09966229164193269</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.06156191498638434</v>
+      </c>
+      <c r="I29">
+        <v>0.01591334144281499</v>
+      </c>
+      <c r="J29">
+        <v>-0.1150102406061874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1133011588461543</v>
+        <v>0.1223995414990953</v>
       </c>
       <c r="C30">
-        <v>0.009365877986614939</v>
+        <v>-0.05817677337743906</v>
       </c>
       <c r="D30">
-        <v>-0.1574795896424408</v>
+        <v>0.009307813780599482</v>
       </c>
       <c r="E30">
-        <v>0.03799187316528955</v>
+        <v>-0.03040118950189328</v>
       </c>
       <c r="F30">
-        <v>-0.1796049954558173</v>
+        <v>0.05115215389506379</v>
       </c>
       <c r="G30">
-        <v>-0.1873926632224583</v>
+        <v>-0.08371205244664533</v>
       </c>
       <c r="H30">
-        <v>0.02399020579222083</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1489748068798513</v>
+      </c>
+      <c r="I30">
+        <v>0.05502629955337465</v>
+      </c>
+      <c r="J30">
+        <v>0.1371432567813922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05593924417566906</v>
+        <v>0.03883325863311245</v>
       </c>
       <c r="C31">
-        <v>-0.02882067243116323</v>
+        <v>-0.0235259348033772</v>
       </c>
       <c r="D31">
-        <v>-0.02175423203244611</v>
+        <v>-0.02062420432307414</v>
       </c>
       <c r="E31">
-        <v>-0.008051815521455379</v>
+        <v>-0.02074962719155379</v>
       </c>
       <c r="F31">
-        <v>0.005570349980079502</v>
+        <v>-0.006475936751603955</v>
       </c>
       <c r="G31">
-        <v>-0.02831963912989223</v>
+        <v>-0.0007809176862523048</v>
       </c>
       <c r="H31">
-        <v>-0.03877422091140289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.009840130028111637</v>
+      </c>
+      <c r="I31">
+        <v>0.02671988198495209</v>
+      </c>
+      <c r="J31">
+        <v>-0.06455881460316809</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.03391767192042869</v>
+        <v>0.05614068317713426</v>
       </c>
       <c r="C32">
-        <v>0.01436526240556542</v>
+        <v>-0.00204802782695908</v>
       </c>
       <c r="D32">
-        <v>-0.06408025480984809</v>
+        <v>-0.02232608654823883</v>
       </c>
       <c r="E32">
-        <v>-0.007237044231221567</v>
+        <v>0.000679499942673744</v>
       </c>
       <c r="F32">
-        <v>0.09557887448781119</v>
+        <v>0.05020595159193775</v>
       </c>
       <c r="G32">
-        <v>-0.06291584793781188</v>
+        <v>-0.06198483309453959</v>
       </c>
       <c r="H32">
-        <v>-0.04203751323686659</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.03494888502900202</v>
+      </c>
+      <c r="I32">
+        <v>-0.004244842434022889</v>
+      </c>
+      <c r="J32">
+        <v>-0.01962546006005913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.1127451725077816</v>
+        <v>0.1111024252422179</v>
       </c>
       <c r="C33">
-        <v>-0.01172170326377591</v>
+        <v>-0.04632077990932592</v>
       </c>
       <c r="D33">
-        <v>-0.02118827183936768</v>
+        <v>-0.002414582039652858</v>
       </c>
       <c r="E33">
-        <v>-0.02019624598723699</v>
+        <v>-0.07017451656290084</v>
       </c>
       <c r="F33">
-        <v>-0.008559998086186829</v>
+        <v>0.05185054883880565</v>
       </c>
       <c r="G33">
-        <v>-0.07410466665753045</v>
+        <v>-0.01484389686567306</v>
       </c>
       <c r="H33">
-        <v>-0.06786683732014763</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.07479519077875206</v>
+      </c>
+      <c r="I33">
+        <v>0.01043086523156172</v>
+      </c>
+      <c r="J33">
+        <v>-0.02457085138610414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.06972525877299562</v>
+        <v>0.08747580468041058</v>
       </c>
       <c r="C34">
-        <v>-0.03493702099284614</v>
+        <v>-0.04178266647230745</v>
       </c>
       <c r="D34">
-        <v>-0.003853726209750937</v>
+        <v>-0.03090407056809415</v>
       </c>
       <c r="E34">
-        <v>0.001401467657592369</v>
+        <v>-0.03961395530887872</v>
       </c>
       <c r="F34">
-        <v>0.017865124487414</v>
+        <v>0.06592044853350423</v>
       </c>
       <c r="G34">
-        <v>-0.09834130068335578</v>
+        <v>-0.008938104264587998</v>
       </c>
       <c r="H34">
-        <v>0.006516505102961866</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.1006500080184409</v>
+      </c>
+      <c r="I34">
+        <v>0.02890498024536817</v>
+      </c>
+      <c r="J34">
+        <v>-0.01726339372069266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.04360530520868863</v>
+        <v>0.02270127946026956</v>
       </c>
       <c r="C35">
-        <v>-0.002455838732178476</v>
+        <v>-0.007755372785045822</v>
       </c>
       <c r="D35">
-        <v>0.02327863634196335</v>
+        <v>0.008863199431613978</v>
       </c>
       <c r="E35">
-        <v>-0.01017012767552226</v>
+        <v>-0.008688954110745722</v>
       </c>
       <c r="F35">
-        <v>-0.03294096924985042</v>
+        <v>0.01668382054998093</v>
       </c>
       <c r="G35">
-        <v>-0.04242070081438695</v>
+        <v>-0.00400747826813069</v>
       </c>
       <c r="H35">
-        <v>0.01461566680979274</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.04111767589870269</v>
+      </c>
+      <c r="I35">
+        <v>0.01288387119314781</v>
+      </c>
+      <c r="J35">
+        <v>-0.0699993347102833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.03928139607334415</v>
+        <v>0.02963821795291074</v>
       </c>
       <c r="C36">
-        <v>-0.0004789305877351417</v>
+        <v>-0.01323487280542682</v>
       </c>
       <c r="D36">
-        <v>-0.01779923468651949</v>
+        <v>0.006165065088755138</v>
       </c>
       <c r="E36">
-        <v>0.02527919042205625</v>
+        <v>-0.005339565787602416</v>
       </c>
       <c r="F36">
-        <v>-0.02809480396309363</v>
+        <v>-0.006662042132090373</v>
       </c>
       <c r="G36">
-        <v>-0.06772162774591219</v>
+        <v>-0.02606414978906729</v>
       </c>
       <c r="H36">
-        <v>-0.05859858684905174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.0298549636179898</v>
+      </c>
+      <c r="I36">
+        <v>0.03305998359907224</v>
+      </c>
+      <c r="J36">
+        <v>-0.02961727092882008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05290166419055817</v>
+        <v>0.01683679413879368</v>
       </c>
       <c r="C38">
-        <v>-0.02074695552611561</v>
+        <v>-0.005498862506955042</v>
       </c>
       <c r="D38">
-        <v>-0.006255859339583676</v>
+        <v>-0.006734023657338571</v>
       </c>
       <c r="E38">
-        <v>0.006748745738496187</v>
+        <v>-0.01041400786632392</v>
       </c>
       <c r="F38">
-        <v>0.03192591904135161</v>
+        <v>-0.02219694898702944</v>
       </c>
       <c r="G38">
-        <v>-0.06208606146813126</v>
+        <v>0.02354152703362263</v>
       </c>
       <c r="H38">
-        <v>-0.008360641633428346</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.009193040537631687</v>
+      </c>
+      <c r="I38">
+        <v>-0.03645394216029513</v>
+      </c>
+      <c r="J38">
+        <v>0.007316261543010147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.1056356180626652</v>
+        <v>0.1561675726430826</v>
       </c>
       <c r="C39">
-        <v>-0.04317263160800332</v>
+        <v>-0.1034431166154468</v>
       </c>
       <c r="D39">
-        <v>-0.06027739636245771</v>
+        <v>-0.0312852249883137</v>
       </c>
       <c r="E39">
-        <v>0.01804052368209015</v>
+        <v>-0.06007753822543039</v>
       </c>
       <c r="F39">
-        <v>0.02292888025622968</v>
+        <v>0.1655498936941363</v>
       </c>
       <c r="G39">
-        <v>-0.1656491476247135</v>
+        <v>-0.0311707619951536</v>
       </c>
       <c r="H39">
-        <v>0.09406873701156469</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.1607869283762267</v>
+      </c>
+      <c r="I39">
+        <v>0.02983727453953869</v>
+      </c>
+      <c r="J39">
+        <v>-0.06377587962529592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.04612081927833296</v>
+        <v>0.01731868621146805</v>
       </c>
       <c r="C40">
-        <v>-0.01587305548782474</v>
+        <v>-0.006265399994289209</v>
       </c>
       <c r="D40">
-        <v>-0.04776616444432022</v>
+        <v>-0.01451087870362791</v>
       </c>
       <c r="E40">
-        <v>-0.02784058854423514</v>
+        <v>0.005724395626246807</v>
       </c>
       <c r="F40">
-        <v>-0.06618714347232965</v>
+        <v>-0.0431606626371837</v>
       </c>
       <c r="G40">
-        <v>-0.2883842508284359</v>
+        <v>-0.02062189042642284</v>
       </c>
       <c r="H40">
-        <v>0.08564158214425478</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.09696035955330728</v>
+      </c>
+      <c r="I40">
+        <v>0.05836786319402421</v>
+      </c>
+      <c r="J40">
+        <v>0.01244389358531876</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.05004436776384458</v>
+        <v>0.02561501491415358</v>
       </c>
       <c r="C41">
-        <v>-0.02968521868398177</v>
+        <v>0.006083619775866229</v>
       </c>
       <c r="D41">
-        <v>0.02553815036991958</v>
+        <v>-0.0298417208045818</v>
       </c>
       <c r="E41">
-        <v>0.002834656479080148</v>
+        <v>-0.00665599920801449</v>
       </c>
       <c r="F41">
-        <v>0.04190072031912749</v>
+        <v>0.01095179302109459</v>
       </c>
       <c r="G41">
-        <v>-0.05635358596685663</v>
+        <v>0.005382438812272037</v>
       </c>
       <c r="H41">
-        <v>-0.005638479487420972</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.006924420541716497</v>
+      </c>
+      <c r="I41">
+        <v>0.007295362885313789</v>
+      </c>
+      <c r="J41">
+        <v>-0.05682700692408343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.07326968627931686</v>
+        <v>0.03854050096045829</v>
       </c>
       <c r="C43">
-        <v>-0.02787945341669049</v>
+        <v>-0.0001181265899298421</v>
       </c>
       <c r="D43">
-        <v>-0.02924787045161674</v>
+        <v>-0.03820355227775651</v>
       </c>
       <c r="E43">
-        <v>0.01177138892792619</v>
+        <v>-0.03293486294996507</v>
       </c>
       <c r="F43">
-        <v>0.0391393243259442</v>
+        <v>-0.003008732090591544</v>
       </c>
       <c r="G43">
-        <v>-0.01299177838794753</v>
+        <v>-0.0003021832067117853</v>
       </c>
       <c r="H43">
-        <v>0.0006427375786821188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.008951598657375649</v>
+      </c>
+      <c r="I43">
+        <v>0.01059548305236781</v>
+      </c>
+      <c r="J43">
+        <v>-0.06544707546758369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.08191045655575938</v>
+        <v>0.1286972560623608</v>
       </c>
       <c r="C44">
-        <v>-0.003859068636545045</v>
+        <v>-0.06224709297670213</v>
       </c>
       <c r="D44">
-        <v>-0.0599653612619435</v>
+        <v>0.00556152102184283</v>
       </c>
       <c r="E44">
-        <v>0.1123504036170425</v>
+        <v>-0.03789976611532907</v>
       </c>
       <c r="F44">
-        <v>0.02646918261036844</v>
+        <v>0.009421968943031484</v>
       </c>
       <c r="G44">
-        <v>-0.096142859149825</v>
+        <v>0.05458568595149606</v>
       </c>
       <c r="H44">
-        <v>-0.02388476101023184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.2375778588137364</v>
+      </c>
+      <c r="I44">
+        <v>0.09330864740025407</v>
+      </c>
+      <c r="J44">
+        <v>0.1423462065789181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.05230091237214467</v>
+        <v>0.02526926049253247</v>
       </c>
       <c r="C46">
-        <v>-0.03553133644068136</v>
+        <v>0.002062179123764973</v>
       </c>
       <c r="D46">
-        <v>-0.0491624447666404</v>
+        <v>-0.02089683087133778</v>
       </c>
       <c r="E46">
-        <v>0.004001756597210822</v>
+        <v>-0.03178041598002398</v>
       </c>
       <c r="F46">
-        <v>0.0193234989272363</v>
+        <v>-0.02807512738550859</v>
       </c>
       <c r="G46">
-        <v>-0.01741772627795931</v>
+        <v>0.01143429399863797</v>
       </c>
       <c r="H46">
-        <v>-0.08794633226448396</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.04712290249374534</v>
+      </c>
+      <c r="I46">
+        <v>0.00527437864155739</v>
+      </c>
+      <c r="J46">
+        <v>-0.1066240833685236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.05047000244628946</v>
+        <v>0.04424036496004278</v>
       </c>
       <c r="C47">
-        <v>0.002527306152956527</v>
+        <v>0.0003870469387198638</v>
       </c>
       <c r="D47">
-        <v>-0.04771431526106146</v>
+        <v>-0.01412425127644954</v>
       </c>
       <c r="E47">
-        <v>-0.02219021723614712</v>
+        <v>-0.008229751394584489</v>
       </c>
       <c r="F47">
-        <v>-0.04054029830281026</v>
+        <v>-0.004797452208530459</v>
       </c>
       <c r="G47">
-        <v>-0.02786104775229386</v>
+        <v>-0.02981400695325038</v>
       </c>
       <c r="H47">
-        <v>-0.04380320598818054</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.04688025217001312</v>
+      </c>
+      <c r="I47">
+        <v>0.04331359121234223</v>
+      </c>
+      <c r="J47">
+        <v>-0.04787607973497873</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.04297185657773059</v>
+        <v>0.04352817500053151</v>
       </c>
       <c r="C48">
-        <v>-0.0006904624297264074</v>
+        <v>-0.01529428515471204</v>
       </c>
       <c r="D48">
-        <v>-0.02772331583853629</v>
+        <v>0.01084004785606583</v>
       </c>
       <c r="E48">
-        <v>-0.03815334573887572</v>
+        <v>-0.01215510497574179</v>
       </c>
       <c r="F48">
-        <v>-0.03518758172344204</v>
+        <v>0.007290237724420627</v>
       </c>
       <c r="G48">
-        <v>-0.0512490332251498</v>
+        <v>-0.03645622686160579</v>
       </c>
       <c r="H48">
-        <v>-0.01897492585276116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.05622182984180665</v>
+      </c>
+      <c r="I48">
+        <v>0.0273521194819723</v>
+      </c>
+      <c r="J48">
+        <v>-0.07861811489876989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0.2432257264201297</v>
+        <v>0.227237995628695</v>
       </c>
       <c r="C49">
-        <v>-0.06164745490011461</v>
+        <v>0.0107264674009221</v>
       </c>
       <c r="D49">
-        <v>0.1098943084006021</v>
+        <v>-0.06359640884922522</v>
       </c>
       <c r="E49">
-        <v>-0.002527147542587393</v>
+        <v>0.02777858380680467</v>
       </c>
       <c r="F49">
-        <v>0.00446934903351352</v>
+        <v>0.02454581748406031</v>
       </c>
       <c r="G49">
-        <v>0.1949322564901605</v>
+        <v>0.1124430118951551</v>
       </c>
       <c r="H49">
-        <v>0.1013810227849462</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.1002136457709583</v>
+      </c>
+      <c r="I49">
+        <v>-0.09344301042502685</v>
+      </c>
+      <c r="J49">
+        <v>0.2488780640332255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.05603929472742377</v>
+        <v>0.04522278656417601</v>
       </c>
       <c r="C50">
-        <v>-0.0176150574259988</v>
+        <v>-0.01989080599027389</v>
       </c>
       <c r="D50">
-        <v>-0.02423895185634665</v>
+        <v>-0.02752619941072212</v>
       </c>
       <c r="E50">
-        <v>-0.01252299639769225</v>
+        <v>-0.01331127816729891</v>
       </c>
       <c r="F50">
-        <v>0.01674395634420472</v>
+        <v>0.004278900808430398</v>
       </c>
       <c r="G50">
-        <v>-0.02177336239592124</v>
+        <v>-0.00395892484227585</v>
       </c>
       <c r="H50">
-        <v>-0.06868770508055996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.03024054540644738</v>
+      </c>
+      <c r="I50">
+        <v>0.008982750806030969</v>
+      </c>
+      <c r="J50">
+        <v>-0.06105631977887595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.03352980143690747</v>
+        <v>0.01420292952870012</v>
       </c>
       <c r="C51">
-        <v>-0.01190709124097756</v>
+        <v>0.008835881543957038</v>
       </c>
       <c r="D51">
-        <v>-0.01392150393919915</v>
+        <v>-0.002011821648944942</v>
       </c>
       <c r="E51">
-        <v>0.0213360491609738</v>
+        <v>-0.01628761223603582</v>
       </c>
       <c r="F51">
-        <v>0.03461299899011918</v>
+        <v>-0.00701633573172785</v>
       </c>
       <c r="G51">
-        <v>0.01039295357278238</v>
+        <v>0.02480276149577006</v>
       </c>
       <c r="H51">
-        <v>0.0366316471347401</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.007203937077026931</v>
+      </c>
+      <c r="I51">
+        <v>0.00758338641929301</v>
+      </c>
+      <c r="J51">
+        <v>0.01792463932670505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.104748231371219</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.06076589006122923</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.03056626707672025</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02736257654089689</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01770619591789651</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.01284883628135238</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.02464246216600411</v>
+      </c>
+      <c r="I52">
+        <v>-0.07097489506682376</v>
+      </c>
+      <c r="J52">
+        <v>-0.08392299846322478</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1649051089168163</v>
+        <v>0.1546408973452599</v>
       </c>
       <c r="C53">
-        <v>-0.01205196508125027</v>
+        <v>-0.0003627321142949643</v>
       </c>
       <c r="D53">
-        <v>-0.001918221230079411</v>
+        <v>0.006402301215424068</v>
       </c>
       <c r="E53">
-        <v>-0.04959436841276051</v>
+        <v>0.02435233053127563</v>
       </c>
       <c r="F53">
-        <v>0.167997594264124</v>
+        <v>-0.05199656953569476</v>
       </c>
       <c r="G53">
-        <v>0.02336625278053871</v>
+        <v>0.06065519485168045</v>
       </c>
       <c r="H53">
-        <v>-0.0482186876385965</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.09222044808421506</v>
+      </c>
+      <c r="I53">
+        <v>-0.1647396260339962</v>
+      </c>
+      <c r="J53">
+        <v>-0.11287463112127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.0523731159076895</v>
+        <v>0.05113625082408772</v>
       </c>
       <c r="C54">
-        <v>-0.004547678164545831</v>
+        <v>-0.005737237364058084</v>
       </c>
       <c r="D54">
-        <v>-0.02702723873465953</v>
+        <v>-0.00982655411790883</v>
       </c>
       <c r="E54">
-        <v>0.006850668536004126</v>
+        <v>-0.01488453518005987</v>
       </c>
       <c r="F54">
-        <v>-0.02070559763685886</v>
+        <v>-0.01747346377123018</v>
       </c>
       <c r="G54">
-        <v>-0.04544624391004888</v>
+        <v>-0.02309084767802106</v>
       </c>
       <c r="H54">
-        <v>-0.07747928559043711</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.06186694545754066</v>
+      </c>
+      <c r="I54">
+        <v>0.07363803566242492</v>
+      </c>
+      <c r="J54">
+        <v>-0.105126186441257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.1025039971184198</v>
+        <v>0.09229396606039623</v>
       </c>
       <c r="C55">
-        <v>-0.01513345955334303</v>
+        <v>-0.01908114685541864</v>
       </c>
       <c r="D55">
-        <v>-0.01208696996262819</v>
+        <v>0.01976373477125227</v>
       </c>
       <c r="E55">
-        <v>-0.01978017294541617</v>
+        <v>-0.02988694479248872</v>
       </c>
       <c r="F55">
-        <v>0.08069200204711244</v>
+        <v>-0.0009285546706770851</v>
       </c>
       <c r="G55">
-        <v>-0.03122138044216385</v>
+        <v>0.01248260291993158</v>
       </c>
       <c r="H55">
-        <v>-0.08095718400262532</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.02663455758519635</v>
+      </c>
+      <c r="I55">
+        <v>-0.05351402295907784</v>
+      </c>
+      <c r="J55">
+        <v>-0.09628304857367201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1672866995993455</v>
+        <v>0.1585419779819045</v>
       </c>
       <c r="C56">
-        <v>-0.008914676544619445</v>
+        <v>-0.01048947158754259</v>
       </c>
       <c r="D56">
-        <v>0.005995298993090882</v>
+        <v>-0.006903660639421914</v>
       </c>
       <c r="E56">
-        <v>-0.08303247199989257</v>
+        <v>-0.009988384393088435</v>
       </c>
       <c r="F56">
-        <v>0.1587432170334263</v>
+        <v>-0.00671254672847079</v>
       </c>
       <c r="G56">
-        <v>0.008034435743774221</v>
+        <v>0.05120669694549799</v>
       </c>
       <c r="H56">
-        <v>-0.05342044060954016</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.01906685333800285</v>
+      </c>
+      <c r="I56">
+        <v>-0.1269940666924613</v>
+      </c>
+      <c r="J56">
+        <v>-0.1073429696824619</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.01838304652195683</v>
+        <v>0.04173840614089934</v>
       </c>
       <c r="C58">
-        <v>-0.06203761625060653</v>
+        <v>-0.0220105904246096</v>
       </c>
       <c r="D58">
-        <v>-0.1033793965624074</v>
+        <v>-0.0147331606920336</v>
       </c>
       <c r="E58">
-        <v>-0.006281475500755063</v>
+        <v>-0.01045563227693136</v>
       </c>
       <c r="F58">
-        <v>-0.5124927267106701</v>
+        <v>-0.06776895109383317</v>
       </c>
       <c r="G58">
-        <v>-0.1327197969098239</v>
+        <v>-0.03384483603895325</v>
       </c>
       <c r="H58">
-        <v>0.2730290021901908</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1118007055988854</v>
+      </c>
+      <c r="I58">
+        <v>-0.01604373947056576</v>
+      </c>
+      <c r="J58">
+        <v>-0.07663378642686174</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.1519515950742396</v>
+        <v>0.1346911277216843</v>
       </c>
       <c r="C59">
-        <v>0.3690305538715551</v>
+        <v>0.3042067479603168</v>
       </c>
       <c r="D59">
-        <v>0.02679756618379527</v>
+        <v>0.06845378559460438</v>
       </c>
       <c r="E59">
-        <v>0.04798990107427625</v>
+        <v>-0.04363831725417266</v>
       </c>
       <c r="F59">
-        <v>0.0520540634622158</v>
+        <v>0.04199531547992384</v>
       </c>
       <c r="G59">
-        <v>0.002440641979417026</v>
+        <v>0.02992245876890856</v>
       </c>
       <c r="H59">
-        <v>0.0363499149463461</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.04552593533563561</v>
+      </c>
+      <c r="I59">
+        <v>0.07789703374906325</v>
+      </c>
+      <c r="J59">
+        <v>-0.01477591629169861</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.280821244172643</v>
+        <v>0.2824796795443628</v>
       </c>
       <c r="C60">
-        <v>-0.04929001692499854</v>
+        <v>-0.05675730908960804</v>
       </c>
       <c r="D60">
-        <v>0.06956684341940653</v>
+        <v>-0.002644668139822934</v>
       </c>
       <c r="E60">
-        <v>0.04469651134966564</v>
+        <v>0.08201658034113854</v>
       </c>
       <c r="F60">
-        <v>-0.01594946031310439</v>
+        <v>0.0279465658102725</v>
       </c>
       <c r="G60">
-        <v>0.1695266653414472</v>
+        <v>0.1989738919837328</v>
       </c>
       <c r="H60">
-        <v>0.0706778751535047</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.1150346647195693</v>
+      </c>
+      <c r="I60">
+        <v>-0.0364317836186589</v>
+      </c>
+      <c r="J60">
+        <v>0.4734205534736098</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.09326017184930857</v>
+        <v>0.1212508825350142</v>
       </c>
       <c r="C61">
-        <v>-0.02030430800773315</v>
+        <v>-0.06150013713782895</v>
       </c>
       <c r="D61">
-        <v>-0.02375395829493558</v>
+        <v>-0.001423259625613871</v>
       </c>
       <c r="E61">
-        <v>0.01498291764741502</v>
+        <v>-0.04595176206235236</v>
       </c>
       <c r="F61">
-        <v>0.02818313229526731</v>
+        <v>0.1118413096612955</v>
       </c>
       <c r="G61">
-        <v>-0.08573042616361227</v>
+        <v>-0.02057322567705851</v>
       </c>
       <c r="H61">
-        <v>0.02092414153883258</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.1416799621348031</v>
+      </c>
+      <c r="I61">
+        <v>0.09257576097923567</v>
+      </c>
+      <c r="J61">
+        <v>-0.07556091561633929</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0.1423223779421961</v>
+        <v>0.1615590168930942</v>
       </c>
       <c r="C62">
-        <v>-0.03913373495002029</v>
+        <v>-0.02619328212319678</v>
       </c>
       <c r="D62">
-        <v>0.05541710383312289</v>
+        <v>-0.001266820751950054</v>
       </c>
       <c r="E62">
-        <v>-0.09893368386730704</v>
+        <v>0.003527407551761027</v>
       </c>
       <c r="F62">
-        <v>0.1599334378912732</v>
+        <v>-0.01286980351936219</v>
       </c>
       <c r="G62">
-        <v>0.01860868197804938</v>
+        <v>0.01405716814994096</v>
       </c>
       <c r="H62">
-        <v>-0.06914587502026656</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.05085360418566316</v>
+      </c>
+      <c r="I62">
+        <v>-0.1205969049522208</v>
+      </c>
+      <c r="J62">
+        <v>-0.09753949909505601</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04555252963566289</v>
+        <v>0.0517290293872255</v>
       </c>
       <c r="C63">
-        <v>-0.0180709465967746</v>
+        <v>-0.02473168081554045</v>
       </c>
       <c r="D63">
-        <v>-0.0004174956687620347</v>
+        <v>0.004315304708398569</v>
       </c>
       <c r="E63">
-        <v>-0.01433500085485158</v>
+        <v>-0.02878761179140872</v>
       </c>
       <c r="F63">
-        <v>-0.02041069650624875</v>
+        <v>0.005883179656994393</v>
       </c>
       <c r="G63">
-        <v>-0.02901968396542598</v>
+        <v>-0.05903735908985574</v>
       </c>
       <c r="H63">
-        <v>-0.110295997383264</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.03556094772289041</v>
+      </c>
+      <c r="I63">
+        <v>0.03677275597641115</v>
+      </c>
+      <c r="J63">
+        <v>-0.09275728950965252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.1096916570079401</v>
+        <v>0.1037012202826843</v>
       </c>
       <c r="C64">
-        <v>-0.01038711083821653</v>
+        <v>-0.02190632573810074</v>
       </c>
       <c r="D64">
-        <v>-0.01535272983532091</v>
+        <v>-0.009489093474590643</v>
       </c>
       <c r="E64">
-        <v>0.0366833852895238</v>
+        <v>-0.008834483026785876</v>
       </c>
       <c r="F64">
-        <v>0.01263954189774686</v>
+        <v>0.007877023699604545</v>
       </c>
       <c r="G64">
-        <v>-0.02951389534134126</v>
+        <v>0.0415026979283763</v>
       </c>
       <c r="H64">
-        <v>-0.009866698988866468</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.0567011257219734</v>
+      </c>
+      <c r="I64">
+        <v>0.02367789294071425</v>
+      </c>
+      <c r="J64">
+        <v>-0.02107648632998047</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.1073330930550741</v>
+        <v>0.1117624894783822</v>
       </c>
       <c r="C65">
-        <v>-0.02790351509588212</v>
+        <v>-0.003148467405445464</v>
       </c>
       <c r="D65">
-        <v>0.001567701543544928</v>
+        <v>0.009220668319107807</v>
       </c>
       <c r="E65">
-        <v>0.01933012485580986</v>
+        <v>0.02165559132760595</v>
       </c>
       <c r="F65">
-        <v>-0.4725350005693568</v>
+        <v>0.01881427203917551</v>
       </c>
       <c r="G65">
-        <v>0.2035438429034909</v>
+        <v>-0.07557376432531956</v>
       </c>
       <c r="H65">
-        <v>-0.5269000480072038</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.03030176805609917</v>
+      </c>
+      <c r="I65">
+        <v>0.02231203714341094</v>
+      </c>
+      <c r="J65">
+        <v>0.1939928233345005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.1521754041877267</v>
+        <v>0.1858926383336338</v>
       </c>
       <c r="C66">
-        <v>-0.05061114083188013</v>
+        <v>-0.1084922905472214</v>
       </c>
       <c r="D66">
-        <v>-0.01312820392990292</v>
+        <v>-0.04443051128859805</v>
       </c>
       <c r="E66">
-        <v>0.0520110166289903</v>
+        <v>-0.06485827524106792</v>
       </c>
       <c r="F66">
-        <v>0.1043475873464764</v>
+        <v>0.1692001090737251</v>
       </c>
       <c r="G66">
-        <v>-0.2771270137726354</v>
+        <v>-0.01976658231322387</v>
       </c>
       <c r="H66">
-        <v>0.1664289241108686</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1587367171255293</v>
+      </c>
+      <c r="I66">
+        <v>0.02642101213784203</v>
+      </c>
+      <c r="J66">
+        <v>-0.0383926092925291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.1073218666740509</v>
+        <v>0.08045980326509827</v>
       </c>
       <c r="C67">
-        <v>-0.04117279253790831</v>
+        <v>-0.02888929887200535</v>
       </c>
       <c r="D67">
-        <v>0.01185271227220718</v>
+        <v>0.006341070591856794</v>
       </c>
       <c r="E67">
-        <v>0.03359816009454062</v>
+        <v>-0.08061965468546986</v>
       </c>
       <c r="F67">
-        <v>0.06179788582305693</v>
+        <v>0.004306278337584817</v>
       </c>
       <c r="G67">
-        <v>-0.04161425191639576</v>
+        <v>0.0683797015892264</v>
       </c>
       <c r="H67">
-        <v>-0.006591040291051775</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.05983341809318531</v>
+      </c>
+      <c r="I67">
+        <v>0.01619007535420547</v>
+      </c>
+      <c r="J67">
+        <v>0.1152602378075103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.04173068849203428</v>
+        <v>0.05323304678129065</v>
       </c>
       <c r="C68">
-        <v>0.2927233007751571</v>
+        <v>0.2768672977207022</v>
       </c>
       <c r="D68">
-        <v>-0.004375478119804272</v>
+        <v>0.06779928757135621</v>
       </c>
       <c r="E68">
-        <v>-0.02363834662826474</v>
+        <v>-0.02830098247819722</v>
       </c>
       <c r="F68">
-        <v>-0.02529006748342025</v>
+        <v>0.05970547799630558</v>
       </c>
       <c r="G68">
-        <v>0.02254450435633985</v>
+        <v>-0.03636940205925716</v>
       </c>
       <c r="H68">
-        <v>-0.0285936866272109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.04071260363169243</v>
+      </c>
+      <c r="I68">
+        <v>0.04258702436792673</v>
+      </c>
+      <c r="J68">
+        <v>0.006925025789665357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.04961769088037508</v>
+        <v>0.03804923479745386</v>
       </c>
       <c r="C69">
-        <v>-0.01006153209702183</v>
+        <v>-0.0004634118857802569</v>
       </c>
       <c r="D69">
-        <v>-0.004312413648580433</v>
+        <v>0.01197328627583691</v>
       </c>
       <c r="E69">
-        <v>-0.0411919307094604</v>
+        <v>-0.02237962713936906</v>
       </c>
       <c r="F69">
-        <v>-0.001361195435175006</v>
+        <v>0.002066808947749338</v>
       </c>
       <c r="G69">
-        <v>-0.01053442459356159</v>
+        <v>-0.0003335596972145834</v>
       </c>
       <c r="H69">
-        <v>0.001291600831872527</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.02264221981928559</v>
+      </c>
+      <c r="I69">
+        <v>0.001217994515057692</v>
+      </c>
+      <c r="J69">
+        <v>-0.01300261589829834</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>0.08168779256524734</v>
+        <v>0.0409991872675266</v>
       </c>
       <c r="C70">
-        <v>-0.01098925035514599</v>
+        <v>0.004267493933793875</v>
       </c>
       <c r="D70">
-        <v>0.03413616308151784</v>
+        <v>0.02131850031462114</v>
       </c>
       <c r="E70">
-        <v>0.0546519023467341</v>
+        <v>-0.0293362744264929</v>
       </c>
       <c r="F70">
-        <v>0.03236513936395372</v>
+        <v>0.02049776034453737</v>
       </c>
       <c r="G70">
-        <v>0.04754502761778328</v>
+        <v>0.05345770772851036</v>
       </c>
       <c r="H70">
-        <v>0.002574811364310931</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.009923301487349675</v>
+      </c>
+      <c r="I70">
+        <v>0.01348630214146158</v>
+      </c>
+      <c r="J70">
+        <v>-0.08436594215604701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.05196665407515681</v>
+        <v>0.06196369019756891</v>
       </c>
       <c r="C71">
-        <v>0.3016043723246514</v>
+        <v>0.2971799843812589</v>
       </c>
       <c r="D71">
-        <v>0.003068057580234529</v>
+        <v>0.07365753406982641</v>
       </c>
       <c r="E71">
-        <v>0.004721309148813633</v>
+        <v>-0.02900432922683621</v>
       </c>
       <c r="F71">
-        <v>-0.006638042207198835</v>
+        <v>0.05085579914391841</v>
       </c>
       <c r="G71">
-        <v>-0.002416370251708412</v>
+        <v>-0.0122134866719276</v>
       </c>
       <c r="H71">
-        <v>0.005132696166631308</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.05066406701942432</v>
+      </c>
+      <c r="I71">
+        <v>0.03585077089664533</v>
+      </c>
+      <c r="J71">
+        <v>0.0251202877887301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1286212552243785</v>
+        <v>0.1336294036199749</v>
       </c>
       <c r="C72">
-        <v>0.01033407830893262</v>
+        <v>0.02689313325658096</v>
       </c>
       <c r="D72">
-        <v>0.07624116443087879</v>
+        <v>-0.01286915789562276</v>
       </c>
       <c r="E72">
-        <v>-0.1322254776553826</v>
+        <v>-0.01939591147326514</v>
       </c>
       <c r="F72">
-        <v>0.0001796569256352499</v>
+        <v>0.001528419001609829</v>
       </c>
       <c r="G72">
-        <v>-0.04112082666719669</v>
+        <v>-0.03490629364403082</v>
       </c>
       <c r="H72">
-        <v>-0.08966071664441065</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.05795535711454861</v>
+      </c>
+      <c r="I72">
+        <v>-0.01873250419741143</v>
+      </c>
+      <c r="J72">
+        <v>-0.01369600877399208</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2710763001327305</v>
+        <v>0.2330915250207794</v>
       </c>
       <c r="C73">
-        <v>-0.1394497475075324</v>
+        <v>-0.00675684383371654</v>
       </c>
       <c r="D73">
-        <v>0.1326040853360579</v>
+        <v>-0.03040495654835622</v>
       </c>
       <c r="E73">
-        <v>0.07171276352504591</v>
+        <v>-0.004918759891284316</v>
       </c>
       <c r="F73">
-        <v>-0.1569807051377601</v>
+        <v>0.02978345942851064</v>
       </c>
       <c r="G73">
-        <v>0.3668363841780697</v>
+        <v>0.2477674868654575</v>
       </c>
       <c r="H73">
-        <v>0.4193628516411521</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.1893575507129685</v>
+      </c>
+      <c r="I73">
+        <v>-0.2006599940855315</v>
+      </c>
+      <c r="J73">
+        <v>0.2686423551751719</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.101765532454789</v>
+        <v>0.1125843299591704</v>
       </c>
       <c r="C74">
-        <v>-0.03845709242563837</v>
+        <v>-0.02321529528257777</v>
       </c>
       <c r="D74">
-        <v>-0.008095431114899344</v>
+        <v>-0.02380072393708603</v>
       </c>
       <c r="E74">
-        <v>-0.01722918922870971</v>
+        <v>-0.01472574613300472</v>
       </c>
       <c r="F74">
-        <v>0.08758104723739969</v>
+        <v>-0.01723826825153162</v>
       </c>
       <c r="G74">
-        <v>0.0393127367672304</v>
+        <v>0.00570276678491294</v>
       </c>
       <c r="H74">
-        <v>-0.01998066679910049</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.005469346084368675</v>
+      </c>
+      <c r="I74">
+        <v>-0.1126257258224152</v>
+      </c>
+      <c r="J74">
+        <v>-0.1031534349318319</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09819065688499509</v>
+        <v>0.122818220760434</v>
       </c>
       <c r="C75">
-        <v>-0.02162339856570375</v>
+        <v>-0.0295721169010615</v>
       </c>
       <c r="D75">
-        <v>0.006501486383370245</v>
+        <v>-0.02349312073258135</v>
       </c>
       <c r="E75">
-        <v>-0.06874166315176249</v>
+        <v>-0.007348681777039667</v>
       </c>
       <c r="F75">
-        <v>0.05636466778368601</v>
+        <v>-0.01043606742458414</v>
       </c>
       <c r="G75">
-        <v>0.02209221301939098</v>
+        <v>-0.01530973868056734</v>
       </c>
       <c r="H75">
-        <v>-0.02521562854989282</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.007390454945018517</v>
+      </c>
+      <c r="I75">
+        <v>-0.04834293582456146</v>
+      </c>
+      <c r="J75">
+        <v>-0.09329102562963654</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.1452329124052164</v>
+        <v>0.04343715053567454</v>
       </c>
       <c r="C76">
-        <v>-0.0337235818709825</v>
+        <v>0.005341603646812871</v>
       </c>
       <c r="D76">
-        <v>-0.03916406809673886</v>
+        <v>-0.009979312917241499</v>
       </c>
       <c r="E76">
-        <v>-0.04417269855797856</v>
+        <v>-0.0281023729988113</v>
       </c>
       <c r="F76">
-        <v>0.1757998389369442</v>
+        <v>-0.02873880591485902</v>
       </c>
       <c r="G76">
-        <v>0.05137993759402899</v>
+        <v>0.04513664977212213</v>
       </c>
       <c r="H76">
-        <v>-0.04043870501353564</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.0418037269959932</v>
+      </c>
+      <c r="I76">
+        <v>-0.02860358359319701</v>
+      </c>
+      <c r="J76">
+        <v>-0.04731117891729732</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.07294380566451779</v>
+        <v>0.08921100150370399</v>
       </c>
       <c r="C77">
-        <v>0.01280659530232833</v>
+        <v>-0.07703960785431006</v>
       </c>
       <c r="D77">
-        <v>-0.01065427015117466</v>
+        <v>-0.01535740790031848</v>
       </c>
       <c r="E77">
-        <v>0.1086631778149645</v>
+        <v>0.008010708632440139</v>
       </c>
       <c r="F77">
-        <v>-0.2117375184541791</v>
+        <v>0.01871815154755917</v>
       </c>
       <c r="G77">
-        <v>-0.1022272653454429</v>
+        <v>0.001067654529963344</v>
       </c>
       <c r="H77">
-        <v>0.2308867501306827</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.07450822849528325</v>
+      </c>
+      <c r="I77">
+        <v>0.1716203686096153</v>
+      </c>
+      <c r="J77">
+        <v>0.1673924772606913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.2306937554445092</v>
+        <v>0.1430106373475778</v>
       </c>
       <c r="C78">
-        <v>-0.04018578439582923</v>
+        <v>-0.02894352302104254</v>
       </c>
       <c r="D78">
-        <v>-0.1565574111604963</v>
+        <v>-0.1466097577733015</v>
       </c>
       <c r="E78">
-        <v>0.09582675849767285</v>
+        <v>-0.2347221516961413</v>
       </c>
       <c r="F78">
-        <v>-0.08906838651092554</v>
+        <v>-0.3275080199138576</v>
       </c>
       <c r="G78">
-        <v>-0.1878261152660098</v>
+        <v>-0.06370098906124239</v>
       </c>
       <c r="H78">
-        <v>-0.117621722500216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.4896782749063976</v>
+      </c>
+      <c r="I78">
+        <v>0.6647642172923449</v>
+      </c>
+      <c r="J78">
+        <v>-0.0743536037819708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.1402836000998496</v>
+        <v>0.1425531870286575</v>
       </c>
       <c r="C79">
-        <v>-0.01123519205899764</v>
+        <v>-0.01988048527611086</v>
       </c>
       <c r="D79">
-        <v>0.006681262603991452</v>
+        <v>-0.04230401111593204</v>
       </c>
       <c r="E79">
-        <v>-0.04994382239752406</v>
+        <v>0.006361622742775206</v>
       </c>
       <c r="F79">
-        <v>0.07906739000042452</v>
+        <v>-0.01345246524522659</v>
       </c>
       <c r="G79">
-        <v>-0.01301732270077438</v>
+        <v>0.02221530864574585</v>
       </c>
       <c r="H79">
-        <v>-0.06730465839502399</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.01218842271888822</v>
+      </c>
+      <c r="I79">
+        <v>-0.1162266953838336</v>
+      </c>
+      <c r="J79">
+        <v>-0.1043125636176223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.04366578784062377</v>
+        <v>0.07660097996397201</v>
       </c>
       <c r="C80">
-        <v>0.01042298420510607</v>
+        <v>-0.04718848125130132</v>
       </c>
       <c r="D80">
-        <v>0.10677590939205</v>
+        <v>0.01506926309253422</v>
       </c>
       <c r="E80">
-        <v>0.04342222993452233</v>
+        <v>-0.02935168185257973</v>
       </c>
       <c r="F80">
-        <v>-0.04210960714442712</v>
+        <v>0.05467358330532879</v>
       </c>
       <c r="G80">
-        <v>-0.01994165033231039</v>
+        <v>-0.003285559511630013</v>
       </c>
       <c r="H80">
-        <v>-0.1187036104924547</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.01954120784131363</v>
+      </c>
+      <c r="I80">
+        <v>0.01750103272189836</v>
+      </c>
+      <c r="J80">
+        <v>-0.1325849289089704</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1089632530538573</v>
+        <v>0.1429470191887318</v>
       </c>
       <c r="C81">
-        <v>-0.003017742257861802</v>
+        <v>-0.03735732519530987</v>
       </c>
       <c r="D81">
-        <v>-0.003682545861181794</v>
+        <v>-0.02876544233526867</v>
       </c>
       <c r="E81">
-        <v>-0.02199672414836529</v>
+        <v>-0.01892879549679364</v>
       </c>
       <c r="F81">
-        <v>0.114317947869189</v>
+        <v>-0.01832052503291841</v>
       </c>
       <c r="G81">
-        <v>-0.01630832385786329</v>
+        <v>0.005889520474828451</v>
       </c>
       <c r="H81">
-        <v>-0.03942062227612775</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.01095922526568916</v>
+      </c>
+      <c r="I81">
+        <v>-0.03762908743993835</v>
+      </c>
+      <c r="J81">
+        <v>-0.1492326722960411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.1183901363921125</v>
+        <v>0.1648080218429493</v>
       </c>
       <c r="C82">
-        <v>-0.02345434297771841</v>
+        <v>-0.04587494700148526</v>
       </c>
       <c r="D82">
-        <v>0.02355336411847824</v>
+        <v>0.007462885292117727</v>
       </c>
       <c r="E82">
-        <v>0.03064350255821236</v>
+        <v>-0.001953214913254903</v>
       </c>
       <c r="F82">
-        <v>0.215546981592371</v>
+        <v>0.002321145522587842</v>
       </c>
       <c r="G82">
-        <v>-0.002937046488894007</v>
+        <v>0.05383485063108641</v>
       </c>
       <c r="H82">
-        <v>-0.07310093869123885</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.03940225012965803</v>
+      </c>
+      <c r="I82">
+        <v>-0.153191039575563</v>
+      </c>
+      <c r="J82">
+        <v>-0.1934169938438461</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.1107047637977877</v>
+        <v>0.08867360650999637</v>
       </c>
       <c r="C83">
-        <v>-0.04528984130566285</v>
+        <v>-0.03125710520847873</v>
       </c>
       <c r="D83">
-        <v>0.03228912540762365</v>
+        <v>0.0002381111721766725</v>
       </c>
       <c r="E83">
-        <v>0.0908378570285335</v>
+        <v>0.05260755934630178</v>
       </c>
       <c r="F83">
-        <v>-0.02086938617870076</v>
+        <v>-0.03683098014538274</v>
       </c>
       <c r="G83">
-        <v>-0.06751149775621326</v>
+        <v>-0.05484006920519992</v>
       </c>
       <c r="H83">
-        <v>0.0727328943651817</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.04558506118310975</v>
+      </c>
+      <c r="I83">
+        <v>0.07168684664973755</v>
+      </c>
+      <c r="J83">
+        <v>-0.1099229111395023</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.0498244560059041</v>
+        <v>0.0669322216772814</v>
       </c>
       <c r="C84">
-        <v>-0.02843988027919816</v>
+        <v>-0.01925804059531015</v>
       </c>
       <c r="D84">
-        <v>-0.0115631631224796</v>
+        <v>0.001354479490238578</v>
       </c>
       <c r="E84">
-        <v>-0.04212178376730141</v>
+        <v>0.01775732248483229</v>
       </c>
       <c r="F84">
-        <v>0.06266634263878025</v>
+        <v>0.08481846501259402</v>
       </c>
       <c r="G84">
-        <v>-0.0004156870816011478</v>
+        <v>0.02690840204594908</v>
       </c>
       <c r="H84">
-        <v>-0.04659216909336606</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.08437542604466473</v>
+      </c>
+      <c r="I84">
+        <v>0.1000629298958322</v>
+      </c>
+      <c r="J84">
+        <v>0.1506252443271933</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.1121803463488569</v>
+        <v>0.1239193868733669</v>
       </c>
       <c r="C85">
-        <v>-0.01754230367132185</v>
+        <v>-0.01064325749929542</v>
       </c>
       <c r="D85">
-        <v>-0.0001679533013821691</v>
+        <v>-0.01295820166817213</v>
       </c>
       <c r="E85">
-        <v>-0.07447461521258536</v>
+        <v>-0.0005913274409047785</v>
       </c>
       <c r="F85">
-        <v>0.1046161693506986</v>
+        <v>-0.01691175826589826</v>
       </c>
       <c r="G85">
-        <v>-0.0280633123101112</v>
+        <v>0.0207696239367102</v>
       </c>
       <c r="H85">
-        <v>-0.1023197043922725</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.01120290617156089</v>
+      </c>
+      <c r="I85">
+        <v>-0.07349710905637566</v>
+      </c>
+      <c r="J85">
+        <v>-0.09226793442477105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.06404766063302589</v>
+        <v>0.1115018439150081</v>
       </c>
       <c r="C86">
-        <v>-0.02287175559969815</v>
+        <v>0.08249042967505323</v>
       </c>
       <c r="D86">
-        <v>-0.02739469679699312</v>
+        <v>-0.3267856879489762</v>
       </c>
       <c r="E86">
-        <v>0.1080817480841121</v>
+        <v>0.870274847907943</v>
       </c>
       <c r="F86">
-        <v>0.03755967242937822</v>
+        <v>-0.1173150378087395</v>
       </c>
       <c r="G86">
-        <v>0.06738660249719691</v>
+        <v>-0.1127480709717302</v>
       </c>
       <c r="H86">
-        <v>-0.1984105724365156</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.08849715133967365</v>
+      </c>
+      <c r="I86">
+        <v>0.1640087672304855</v>
+      </c>
+      <c r="J86">
+        <v>-0.03331832971170233</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.1129125328813904</v>
+        <v>0.1215267192982322</v>
       </c>
       <c r="C87">
-        <v>-0.04841944606750203</v>
+        <v>-0.08704809870060412</v>
       </c>
       <c r="D87">
-        <v>-0.02777188132660753</v>
+        <v>0.05952516003147935</v>
       </c>
       <c r="E87">
-        <v>0.03280211158481169</v>
+        <v>0.004200787044932267</v>
       </c>
       <c r="F87">
-        <v>-0.05793314713889419</v>
+        <v>-0.002758116963131955</v>
       </c>
       <c r="G87">
-        <v>-0.135678886797003</v>
+        <v>0.01080688936921022</v>
       </c>
       <c r="H87">
-        <v>-0.03263683213347897</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.08050581295323714</v>
+      </c>
+      <c r="I87">
+        <v>0.2065390782520206</v>
+      </c>
+      <c r="J87">
+        <v>0.07758281734455287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.07358935987150461</v>
+        <v>0.05617622430506195</v>
       </c>
       <c r="C88">
-        <v>-0.04294368311067163</v>
+        <v>-0.02696579682617914</v>
       </c>
       <c r="D88">
-        <v>-0.008802955551029671</v>
+        <v>-0.02627915367470138</v>
       </c>
       <c r="E88">
-        <v>0.02745855471817775</v>
+        <v>-0.03613925494994975</v>
       </c>
       <c r="F88">
-        <v>0.02482533604549866</v>
+        <v>0.05357236423074399</v>
       </c>
       <c r="G88">
-        <v>-0.05382195649353347</v>
+        <v>0.01009717767881646</v>
       </c>
       <c r="H88">
-        <v>-0.01247122822744727</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.006506924832312471</v>
+      </c>
+      <c r="I88">
+        <v>0.03156830954107841</v>
+      </c>
+      <c r="J88">
+        <v>-0.05900253631191883</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.09293349568279104</v>
+        <v>0.1050283623150517</v>
       </c>
       <c r="C89">
-        <v>0.3873944993275776</v>
+        <v>0.3706001539300537</v>
       </c>
       <c r="D89">
-        <v>-0.01201789053523956</v>
+        <v>0.08667908750908825</v>
       </c>
       <c r="E89">
-        <v>0.0506467098462939</v>
+        <v>-0.01935456293956976</v>
       </c>
       <c r="F89">
-        <v>-0.009890656643566854</v>
+        <v>-0.009039309537048124</v>
       </c>
       <c r="G89">
-        <v>0.006640121562716166</v>
+        <v>0.03111830694235347</v>
       </c>
       <c r="H89">
-        <v>0.03424928394594699</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.03334439578063036</v>
+      </c>
+      <c r="I89">
+        <v>0.05729183640975075</v>
+      </c>
+      <c r="J89">
+        <v>-0.01586832824132951</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.07199397834331979</v>
+        <v>0.07360728772183334</v>
       </c>
       <c r="C90">
-        <v>0.3012648386101369</v>
+        <v>0.3045663296102786</v>
       </c>
       <c r="D90">
-        <v>-0.02762492354847133</v>
+        <v>0.06982766473512167</v>
       </c>
       <c r="E90">
-        <v>0.0127990020063556</v>
+        <v>-0.01766811225473922</v>
       </c>
       <c r="F90">
-        <v>0.006215848667150263</v>
+        <v>0.05794321269364391</v>
       </c>
       <c r="G90">
-        <v>-0.02210060580619371</v>
+        <v>-0.0003203169164361836</v>
       </c>
       <c r="H90">
-        <v>0.0425104316201993</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.06245492340276771</v>
+      </c>
+      <c r="I90">
+        <v>0.02388443111391302</v>
+      </c>
+      <c r="J90">
+        <v>0.02369952854713535</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.0837830635513655</v>
+        <v>0.09161518873693215</v>
       </c>
       <c r="C91">
-        <v>-0.0302988558528649</v>
+        <v>-0.0204955285447661</v>
       </c>
       <c r="D91">
-        <v>-0.00550583526682887</v>
+        <v>-0.02051393219460533</v>
       </c>
       <c r="E91">
-        <v>-0.01137307172409456</v>
+        <v>0.01037670083383664</v>
       </c>
       <c r="F91">
-        <v>0.04250043666965712</v>
+        <v>-0.0179238699136863</v>
       </c>
       <c r="G91">
-        <v>0.03488753488572027</v>
+        <v>0.02181835435675272</v>
       </c>
       <c r="H91">
-        <v>0.00903125992568711</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.009623664318043488</v>
+      </c>
+      <c r="I91">
+        <v>-0.04197305097675662</v>
+      </c>
+      <c r="J91">
+        <v>-0.07300186767223303</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.06751138018832735</v>
+        <v>0.08531823380816765</v>
       </c>
       <c r="C92">
-        <v>0.3594768125058646</v>
+        <v>0.3347890074994759</v>
       </c>
       <c r="D92">
-        <v>-0.02327812890287346</v>
+        <v>0.09844998166361187</v>
       </c>
       <c r="E92">
-        <v>0.01952558085394785</v>
+        <v>-0.005313900339587689</v>
       </c>
       <c r="F92">
-        <v>-0.06058083438780212</v>
+        <v>0.005138815478132614</v>
       </c>
       <c r="G92">
-        <v>0.007076261534359691</v>
+        <v>-0.02817415056456817</v>
       </c>
       <c r="H92">
-        <v>0.02999948817743815</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.0634896715540551</v>
+      </c>
+      <c r="I92">
+        <v>0.02945579251806075</v>
+      </c>
+      <c r="J92">
+        <v>-0.05980571096251761</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.08552262709444126</v>
+        <v>0.07674069298601088</v>
       </c>
       <c r="C93">
-        <v>0.3137421894213331</v>
+        <v>0.3284341700662481</v>
       </c>
       <c r="D93">
-        <v>0.01572695342092016</v>
+        <v>0.07393661456166797</v>
       </c>
       <c r="E93">
-        <v>0.004282176407255012</v>
+        <v>-0.005388081576753306</v>
       </c>
       <c r="F93">
-        <v>-0.02808459887367974</v>
+        <v>0.06324300467680129</v>
       </c>
       <c r="G93">
-        <v>0.02922884449190847</v>
+        <v>0.004236516796997784</v>
       </c>
       <c r="H93">
-        <v>-0.004048779822460939</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.03220478915898206</v>
+      </c>
+      <c r="I93">
+        <v>0.03408249338136949</v>
+      </c>
+      <c r="J93">
+        <v>-0.01009913444387873</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.09964263822558204</v>
+        <v>0.1427854596446899</v>
       </c>
       <c r="C94">
-        <v>-0.04819693952365036</v>
+        <v>-0.03363992680273768</v>
       </c>
       <c r="D94">
-        <v>-0.01321991515781574</v>
+        <v>-0.0238546383422472</v>
       </c>
       <c r="E94">
-        <v>-0.0305624159031763</v>
+        <v>-0.04374807579335948</v>
       </c>
       <c r="F94">
-        <v>0.07527974592783367</v>
+        <v>-0.02392665277509418</v>
       </c>
       <c r="G94">
-        <v>0.03280606460037868</v>
+        <v>0.01138567831637479</v>
       </c>
       <c r="H94">
-        <v>-0.03644669727116277</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.002734731917498187</v>
+      </c>
+      <c r="I94">
+        <v>-0.06047051219793927</v>
+      </c>
+      <c r="J94">
+        <v>-0.06271658683331403</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1298219287326892</v>
+        <v>0.123171647448841</v>
       </c>
       <c r="C95">
-        <v>-0.05982475501862444</v>
+        <v>-0.04332883530396867</v>
       </c>
       <c r="D95">
-        <v>-0.06802987056981767</v>
+        <v>-0.03360381908149614</v>
       </c>
       <c r="E95">
-        <v>0.07323656521038334</v>
+        <v>-0.03573614094641667</v>
       </c>
       <c r="F95">
-        <v>-0.154393134692872</v>
+        <v>0.0212303458103265</v>
       </c>
       <c r="G95">
-        <v>-0.08685869789434326</v>
+        <v>0.0216671479615742</v>
       </c>
       <c r="H95">
-        <v>-0.04575322032115085</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1041173161061153</v>
+      </c>
+      <c r="I95">
+        <v>0.1153748921350076</v>
+      </c>
+      <c r="J95">
+        <v>0.1050990312444383</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.01118851751528393</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-5.903316372639854e-05</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.00258989210828675</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.004201042724890292</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.003553514677660595</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.009630167264843392</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>0.0009746337138662006</v>
+      </c>
+      <c r="I96">
+        <v>0.02510911062593362</v>
+      </c>
+      <c r="J96">
+        <v>0.0119737976739614</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0.144947146566185</v>
+        <v>0.1753756124865941</v>
       </c>
       <c r="C97">
-        <v>0.03738808283334599</v>
+        <v>0.01887156157442088</v>
       </c>
       <c r="D97">
-        <v>0.1329651492731445</v>
+        <v>-0.05039697694870537</v>
       </c>
       <c r="E97">
-        <v>-0.8783517763401267</v>
+        <v>-0.1002101037633893</v>
       </c>
       <c r="F97">
-        <v>-0.1528742907257847</v>
+        <v>-0.05964981671827301</v>
       </c>
       <c r="G97">
-        <v>-0.09922038434542575</v>
+        <v>-0.8697246804905104</v>
       </c>
       <c r="H97">
-        <v>0.03791792241744089</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.142804349718599</v>
+      </c>
+      <c r="I97">
+        <v>-0.2626865823462453</v>
+      </c>
+      <c r="J97">
+        <v>0.1709683349665025</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.3195587359435131</v>
+        <v>0.2638766189061898</v>
       </c>
       <c r="C98">
-        <v>-0.06570225072375564</v>
+        <v>0.01102811814958485</v>
       </c>
       <c r="D98">
-        <v>0.1786738177670253</v>
+        <v>0.05935132313481116</v>
       </c>
       <c r="E98">
-        <v>0.1222679927841053</v>
+        <v>0.1158169029427792</v>
       </c>
       <c r="F98">
-        <v>0.02567248292740229</v>
+        <v>-0.1784143774518536</v>
       </c>
       <c r="G98">
-        <v>0.2264179915084981</v>
+        <v>0.1481940078511315</v>
       </c>
       <c r="H98">
-        <v>0.1328416756268809</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.3339837912512452</v>
+      </c>
+      <c r="I98">
+        <v>-0.1963797921425327</v>
+      </c>
+      <c r="J98">
+        <v>-0.2539960538771999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0.08867948666278641</v>
+        <v>0.05729134753062306</v>
       </c>
       <c r="C99">
-        <v>-0.02064356101357881</v>
+        <v>0.005057374998552635</v>
       </c>
       <c r="D99">
-        <v>-0.0114514038291056</v>
+        <v>-0.02146145014491104</v>
       </c>
       <c r="E99">
-        <v>-0.004128116146125168</v>
+        <v>-0.04244073441906172</v>
       </c>
       <c r="F99">
-        <v>0.01352592320133369</v>
+        <v>0.007137263919606015</v>
       </c>
       <c r="G99">
-        <v>-0.00041411245538893</v>
+        <v>0.01326339635798172</v>
       </c>
       <c r="H99">
-        <v>0.07290830577384136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.0281165648930614</v>
+      </c>
+      <c r="I99">
+        <v>-0.01796459581871288</v>
+      </c>
+      <c r="J99">
+        <v>0.005695037151313935</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.09371988063863222</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.2177370262383923</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.8831869910385803</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.2646361454384424</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.07713137433495026</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.09711597838409498</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.0395591421306903</v>
+      </c>
+      <c r="I100">
+        <v>0.1276774007152953</v>
+      </c>
+      <c r="J100">
+        <v>-0.002496988828955254</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.05794291146850306</v>
+        <v>0.03664913756956137</v>
       </c>
       <c r="C101">
-        <v>0.001447741843862108</v>
+        <v>-0.005472844733544089</v>
       </c>
       <c r="D101">
-        <v>-0.04013678740191008</v>
+        <v>0.005830050830145251</v>
       </c>
       <c r="E101">
-        <v>0.03090997069502718</v>
+        <v>-0.009662153770971117</v>
       </c>
       <c r="F101">
-        <v>0.01508039137163641</v>
+        <v>0.0238738680160923</v>
       </c>
       <c r="G101">
-        <v>-0.04451618810591679</v>
+        <v>0.009722534388517322</v>
       </c>
       <c r="H101">
-        <v>-0.0983265678155901</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.05990993461377873</v>
+      </c>
+      <c r="I101">
+        <v>0.01730426186804928</v>
+      </c>
+      <c r="J101">
+        <v>-0.1142731114194389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
